--- a/Logs/test_CNN/testing_episode_output.xlsx
+++ b/Logs/test_CNN/testing_episode_output.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,10 +405,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B2">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -419,10 +419,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B3">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -433,10 +433,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B4">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -447,10 +447,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B5">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -461,10 +461,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B6">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -475,10 +475,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B7">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -489,10 +489,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B8">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -503,10 +503,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B9">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -517,10 +517,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B10">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -531,10 +531,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B11">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -545,10 +545,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B12">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B13">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B14">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -587,10 +587,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B15">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -601,10 +601,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B16">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -615,10 +615,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B17">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -629,10 +629,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B18">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B19">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B20">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -671,10 +671,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B21">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B22">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -699,10 +699,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B23">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -713,10 +713,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B24">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B25">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -741,10 +741,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B26">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -755,10 +755,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B27">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -769,10 +769,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B28">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -783,10 +783,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B29">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B30">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -811,24 +811,24 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B31">
-        <v>10.38516426086426</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3.225806474685669</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B32">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -839,10 +839,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B33">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -853,10 +853,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B34">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -867,10 +867,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B35">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B36">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -895,10 +895,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B37">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B38">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -923,10 +923,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B39">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -937,10 +937,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B40">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -951,10 +951,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B41">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -965,10 +965,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B42">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -979,10 +979,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B43">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -993,10 +993,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B44">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B45">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B46">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1035,24 +1035,24 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B47">
-        <v>10.38516426086426</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>3.225806474685669</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B48">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B49">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1077,10 +1077,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B50">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1091,10 +1091,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B51">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1105,10 +1105,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B52">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1119,10 +1119,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B53">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B54">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1147,10 +1147,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B55">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1161,10 +1161,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B56">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B57">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B58">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1203,10 +1203,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B59">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B60">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B61">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B62">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B63">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B64">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1287,10 +1287,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B65">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1301,10 +1301,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B66">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1315,10 +1315,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B67">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1329,10 +1329,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B68">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B69">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B70">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B71">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B72">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1399,10 +1399,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B73">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1413,10 +1413,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B74">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B75">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B76">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1455,10 +1455,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B77">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1469,10 +1469,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B78">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B79">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B80">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B81">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B82">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B83">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B84">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1567,10 +1567,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B85">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1581,10 +1581,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B86">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -1595,24 +1595,24 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B87">
-        <v>10.38516426086426</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>3.225806474685669</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B88">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1623,10 +1623,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B89">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1637,10 +1637,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B90">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B91">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1665,10 +1665,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B92">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1679,10 +1679,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B93">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1693,10 +1693,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B94">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B95">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -1721,10 +1721,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B96">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -1735,10 +1735,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B97">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B98">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B99">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1777,10 +1777,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B100">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B101">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B102">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -1819,10 +1819,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B103">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -1833,10 +1833,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B104">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -1847,10 +1847,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B105">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B106">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -1875,10 +1875,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B107">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B108">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -1903,10 +1903,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B109">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -1917,10 +1917,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B110">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -1931,10 +1931,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B111">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B112">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -1959,10 +1959,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B113">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -1973,10 +1973,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B114">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B115">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2001,10 +2001,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B116">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2015,10 +2015,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B117">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B118">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2043,24 +2043,24 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B119">
-        <v>10.38516426086426</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>3.225806474685669</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B120">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B121">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2085,10 +2085,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B122">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2099,10 +2099,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B123">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2113,24 +2113,24 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B124">
-        <v>10.38516426086426</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>3.225806474685669</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B125">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2141,10 +2141,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B126">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B127">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2169,10 +2169,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B128">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2183,10 +2183,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B129">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B130">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2211,10 +2211,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B131">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B132">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2239,10 +2239,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B133">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2253,10 +2253,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B134">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B135">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B136">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2295,10 +2295,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B137">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2309,10 +2309,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B138">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B139">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2337,10 +2337,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B140">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B141">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2365,24 +2365,24 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B142">
-        <v>10.38516426086426</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>3.225806474685669</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B143">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2393,10 +2393,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B144">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2407,10 +2407,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B145">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B146">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2435,10 +2435,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B147">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B148">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2463,10 +2463,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B149">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B150">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2491,10 +2491,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B151">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B152">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2519,10 +2519,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B153">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B154">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -2547,10 +2547,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B155">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -2561,10 +2561,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B156">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B157">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -2589,10 +2589,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B158">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -2603,10 +2603,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B159">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -2617,10 +2617,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B160">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -2631,10 +2631,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B161">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -2645,10 +2645,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B162">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B163">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -2673,10 +2673,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B164">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -2687,10 +2687,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B165">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -2701,10 +2701,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B166">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -2715,10 +2715,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B167">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -2729,24 +2729,24 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>-22.38340187072754</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B168">
-        <v>12.18536376953125</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C168">
-        <v>10.19803810119629</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>1.83690881729126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B169">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -2757,10 +2757,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B170">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -2771,10 +2771,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B171">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -2785,24 +2785,24 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B172">
-        <v>10.38516426086426</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>0.07999998331069946</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>1.25806450843811</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B173">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B174">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B175">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -2841,10 +2841,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B176">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -2855,10 +2855,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B177">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -2869,10 +2869,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B178">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -2883,10 +2883,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B179">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -2897,10 +2897,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B180">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -2911,10 +2911,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B181">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -2925,10 +2925,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B182">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -2939,10 +2939,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B183">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -2953,10 +2953,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B184">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B185">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -2981,10 +2981,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B186">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -2995,10 +2995,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B187">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3009,10 +3009,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B188">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3023,10 +3023,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B189">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B190">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3051,24 +3051,24 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B191">
-        <v>10.38516426086426</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>3.225806474685669</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B192">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3079,10 +3079,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B193">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3093,38 +3093,38 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B194">
-        <v>10.38516426086426</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>0.07999998331069946</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>1.25806450843811</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B195">
-        <v>10.38516426086426</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>3.225806474685669</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B196">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3135,10 +3135,10 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B197">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3149,10 +3149,10 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B198">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3163,10 +3163,10 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B199">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B200">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B201">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3205,10 +3205,10 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B202">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -3219,10 +3219,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B203">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -3233,10 +3233,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B204">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -3247,10 +3247,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B205">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3261,10 +3261,10 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B206">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3275,10 +3275,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B207">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -3289,10 +3289,10 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B208">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B209">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -3317,10 +3317,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B210">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -3331,10 +3331,10 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B211">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B212">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -3359,10 +3359,10 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B213">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -3373,10 +3373,10 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B214">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3387,10 +3387,10 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B215">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -3401,10 +3401,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B216">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -3415,24 +3415,24 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B217">
-        <v>10.38516426086426</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>0.07999998331069946</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>1.25806450843811</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B218">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -3443,10 +3443,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B219">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -3457,10 +3457,10 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B220">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -3471,10 +3471,10 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B221">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -3485,10 +3485,10 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B222">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B223">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -3513,10 +3513,10 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B224">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -3527,10 +3527,10 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B225">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B226">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -3555,10 +3555,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B227">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -3569,10 +3569,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B228">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -3583,10 +3583,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B229">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B230">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -3611,10 +3611,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B231">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -3625,10 +3625,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B232">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -3639,10 +3639,10 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B233">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -3653,10 +3653,10 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B234">
-        <v>10.75587368011475</v>
+        <v>1</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -3667,10 +3667,10 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B235">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -3681,10 +3681,10 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B236">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -3695,10 +3695,10 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B237">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -3709,10 +3709,10 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B238">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -3723,10 +3723,10 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B239">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -3737,10 +3737,10 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B240">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -3751,10 +3751,10 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B241">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -3765,10 +3765,10 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B242">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B243">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -3793,10 +3793,10 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B244">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -3807,10 +3807,10 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>-10.75587368011475</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B245">
-        <v>10.75587368011475</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -3821,10 +3821,10 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B246">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -3835,10 +3835,10 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>-10.38516426086426</v>
+        <v>-0.3899999856948853</v>
       </c>
       <c r="B247">
-        <v>10.38516426086426</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>-10.38516426086426</v>
+        <v>-1</v>
       </c>
       <c r="B248">
-        <v>10.38516426086426</v>
+        <v>1</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -3863,15 +3863,1261 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <v>-10.75587368011475</v>
+        <v>-1</v>
       </c>
       <c r="B249">
-        <v>10.75587368011475</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="D249">
+        <v>3.225806474685669</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250">
+        <v>-1</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B251">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B252">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B253">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B254">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255">
+        <v>-1</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B256">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B257">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B258">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B259">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B260">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B261">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B262">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263">
+        <v>-1</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B264">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265">
+        <v>-1</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266">
+        <v>-1</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267">
+        <v>-1</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268">
+        <v>-1</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B269">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270">
+        <v>-1</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271">
+        <v>-1</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B272">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B273">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B274">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>-1</v>
+      </c>
+      <c r="B275">
+        <v>0.3100000023841858</v>
+      </c>
+      <c r="C275">
+        <v>0.6899999976158142</v>
+      </c>
+      <c r="D275">
+        <v>3.225806474685669</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276">
+        <v>-1</v>
+      </c>
+      <c r="B276">
+        <v>0.3100000023841858</v>
+      </c>
+      <c r="C276">
+        <v>0.6899999976158142</v>
+      </c>
+      <c r="D276">
+        <v>3.225806474685669</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B277">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>-1</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>-1</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280">
+        <v>-1</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B281">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282">
+        <v>-1</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B283">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B284">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
+        <v>-1</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B286">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>-1</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>-1</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289">
+        <v>-1</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>-1</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <v>-1</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>-1</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B293">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <v>-1</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B295">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B296">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>-1</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>-1</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B299">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B300">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301">
+        <v>-1</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302">
+        <v>-1</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <v>-1</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304">
+        <v>-1</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305">
+        <v>-1</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306">
+        <v>-1</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307">
+        <v>-1</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B308">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309">
+        <v>-1</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310">
+        <v>-1</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311">
+        <v>-1</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312">
+        <v>-1</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313">
+        <v>-1</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B314">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B315">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B316">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B317">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B318">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319">
+        <v>-1</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B320">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321">
+        <v>-1</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322">
+        <v>-1</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B323">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324">
+        <v>-1</v>
+      </c>
+      <c r="B324">
+        <v>0.3100000023841858</v>
+      </c>
+      <c r="C324">
+        <v>0.6899999976158142</v>
+      </c>
+      <c r="D324">
+        <v>3.225806474685669</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B325">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326">
+        <v>-1</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B327">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328">
+        <v>-1</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B329">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B330">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331">
+        <v>-1</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332">
+        <v>-1</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B333">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334">
+        <v>-1</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B335">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336">
+        <v>-0.3899999856948853</v>
+      </c>
+      <c r="B336">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337">
+        <v>-1</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338">
+        <v>-1</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
         <v>1</v>
       </c>
     </row>
